--- a/resources/data/SqlLoadExcel/system.xlsx
+++ b/resources/data/SqlLoadExcel/system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Postgraduate\YY\code\11.10ModularizationPy\resources\data\SqlLoadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDA0D9-F1AA-49B0-B7CF-F2D979C0DC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A03544-6C3A-4E06-B9F9-A6AD9690B767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -787,6 +787,9 @@
   <si>
     <t>PPC-E001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98,99,100</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94D20C-2A6A-4B5E-B5E1-1BA7A8601A51}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -7477,10 +7480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7501,7 +7504,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7515,8 +7518,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -7530,8 +7532,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -7545,8 +7546,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -7560,8 +7560,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -7575,8 +7574,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -7590,8 +7588,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -7605,8 +7602,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -7620,8 +7616,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -7635,8 +7630,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -7650,8 +7644,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -7665,8 +7658,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -7680,8 +7672,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -7695,8 +7686,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -7710,8 +7700,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -7725,8 +7714,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -7740,8 +7728,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -7755,8 +7742,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -7770,8 +7756,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -7785,8 +7770,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -7800,8 +7784,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -7815,8 +7798,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -7830,8 +7812,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -7845,8 +7826,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -7860,8 +7840,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -7875,8 +7854,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -7890,8 +7868,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -7905,8 +7882,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -7920,8 +7896,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -7935,8 +7910,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -7950,8 +7924,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -7965,8 +7938,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -7980,8 +7952,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7995,8 +7966,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -8010,8 +7980,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -8025,8 +7994,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -8040,8 +8008,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -8055,8 +8022,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -8070,8 +8036,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -8085,8 +8050,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -8100,8 +8064,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -8115,8 +8078,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -8130,8 +8092,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -8145,8 +8106,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -8160,8 +8120,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -8175,8 +8134,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -8190,8 +8148,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -8205,8 +8162,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -8220,8 +8176,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -8235,8 +8190,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -8250,8 +8204,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -8265,8 +8218,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -8280,8 +8232,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -8295,8 +8246,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -8310,8 +8260,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -8325,8 +8274,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -8340,8 +8288,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -8355,8 +8302,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
@@ -8370,8 +8316,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
@@ -8385,8 +8330,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
@@ -8400,8 +8344,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -8415,8 +8358,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
@@ -8430,8 +8372,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -8445,8 +8386,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -8460,8 +8400,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -8475,8 +8414,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -8490,8 +8428,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
-        <f t="shared" ref="A68:A108" si="1">A67+1</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -8505,8 +8442,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -8520,8 +8456,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -8535,8 +8470,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -8550,8 +8484,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -8565,8 +8498,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
@@ -8580,8 +8512,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
@@ -8595,8 +8526,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8610,8 +8540,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8625,8 +8554,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -8640,8 +8568,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -8655,8 +8582,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -8670,8 +8596,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -8685,8 +8610,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -8700,8 +8624,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -8715,8 +8638,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -8730,8 +8652,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -8745,8 +8666,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -8760,8 +8680,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -8775,8 +8694,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
@@ -8790,8 +8708,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
@@ -8805,8 +8722,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
@@ -8820,8 +8736,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>28</v>
@@ -8835,8 +8750,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -8850,8 +8764,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>28</v>
@@ -8865,8 +8778,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>29</v>
@@ -8880,8 +8792,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -8895,8 +8806,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -8910,8 +8820,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
@@ -8925,8 +8834,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>30</v>
@@ -8940,8 +8848,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
@@ -8955,8 +8862,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>31</v>
@@ -8970,8 +8876,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>32</v>
@@ -8985,8 +8890,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
@@ -9000,8 +8904,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
@@ -9015,8 +8918,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
-        <f t="shared" si="1"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
@@ -9030,8 +8932,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -9045,8 +8946,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
-        <f t="shared" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>34</v>
@@ -9060,8 +8960,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
@@ -9075,31 +8974,43 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>33</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>100</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>234</v>
       </c>
     </row>
